--- a/database/sidis/expdata/3049.xlsx
+++ b/database/sidis/expdata/3049.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/files_HEPdata 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Liu/Repos/fitpack/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A11003-DC7B-BC4C-8DB8-2258C2258F0D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B559B4D-D358-164D-A27A-945372AFDABD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16340"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zgt02_p_pt_Col" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -109,11 +105,15 @@
     <t>PT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>systabs_u</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1058,11 +1058,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1105,19 +1105,19 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1146,7 +1146,7 @@
         <v>1.94</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>-5.0000000000000001E-3</v>
@@ -1161,16 +1161,16 @@
         <v>3.0000000000000005E-3</v>
       </c>
       <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1199,7 +1199,7 @@
         <v>1.94</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>-4.0000000000000001E-3</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>19</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1252,7 +1252,7 @@
         <v>1.95</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>-8.0000000000000002E-3</v>
@@ -1267,16 +1267,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1305,7 +1305,7 @@
         <v>1.96</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>7.0000000000000001E-3</v>
@@ -1320,16 +1320,16 @@
         <v>3.872983346207416E-3</v>
       </c>
       <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>19</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>20</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1358,7 +1358,7 @@
         <v>1.98</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>7.0000000000000001E-3</v>
@@ -1373,16 +1373,16 @@
         <v>4.5825756949558379E-3</v>
       </c>
       <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>20</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1411,7 +1411,7 @@
         <v>4.97</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>-3.4000000000000002E-2</v>
@@ -1426,16 +1426,16 @@
         <v>4.7958315233127217E-3</v>
       </c>
       <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
         <v>18</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>19</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>20</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1464,7 +1464,7 @@
         <v>4.97</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>-4.1000000000000002E-2</v>
@@ -1479,16 +1479,16 @@
         <v>4.5825756949558379E-3</v>
       </c>
       <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>19</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>20</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1517,7 +1517,7 @@
         <v>4.97</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>-0.03</v>
@@ -1532,16 +1532,16 @@
         <v>4.7958315233127217E-3</v>
       </c>
       <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
         <v>18</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>19</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>20</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1570,7 +1570,7 @@
         <v>4.97</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>-1.9E-2</v>
@@ -1585,16 +1585,16 @@
         <v>8.485281374238568E-3</v>
       </c>
       <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
         <v>18</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>19</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>20</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1623,7 +1623,7 @@
         <v>4.97</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>1E-3</v>
@@ -1638,16 +1638,16 @@
         <v>1.212435565298214E-2</v>
       </c>
       <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
         <v>18</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>20</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1676,7 +1676,7 @@
         <v>9.34</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>-2.8000000000000001E-2</v>
@@ -1691,16 +1691,16 @@
         <v>6.6332495807107997E-3</v>
       </c>
       <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
         <v>18</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>19</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>20</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1729,7 +1729,7 @@
         <v>9.36</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>-1.7999999999999999E-2</v>
@@ -1744,16 +1744,16 @@
         <v>6.3245553203367588E-3</v>
       </c>
       <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
         <v>18</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>19</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>20</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1782,7 +1782,7 @@
         <v>9.4</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>-4.2000000000000003E-2</v>
@@ -1797,16 +1797,16 @@
         <v>4.7958315233127217E-3</v>
       </c>
       <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
         <v>18</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>19</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>20</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1835,7 +1835,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>-5.8000000000000003E-2</v>
@@ -1850,16 +1850,16 @@
         <v>8.2462112512353188E-3</v>
       </c>
       <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
         <v>18</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>19</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>20</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1888,7 +1888,7 @@
         <v>9.58</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>-4.7E-2</v>
@@ -1903,16 +1903,16 @@
         <v>9.5916630466254434E-3</v>
       </c>
       <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
         <v>18</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>19</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>20</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1941,7 +1941,7 @@
         <v>25.41</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17">
         <v>-3.2000000000000001E-2</v>
@@ -1956,16 +1956,16 @@
         <v>9.7979589711327201E-3</v>
       </c>
       <c r="N17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
         <v>18</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>19</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>20</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1994,7 +1994,7 @@
         <v>25.68</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>-5.8999999999999997E-2</v>
@@ -2009,16 +2009,16 @@
         <v>9.1651513899116757E-3</v>
       </c>
       <c r="N18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
         <v>18</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>19</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>20</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2047,7 +2047,7 @@
         <v>26.2</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>-4.5999999999999999E-2</v>
@@ -2062,16 +2062,16 @@
         <v>9.3808315196468543E-3</v>
       </c>
       <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
         <v>18</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>19</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>20</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2100,7 +2100,7 @@
         <v>26.94</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>-3.6999999999999998E-2</v>
@@ -2115,16 +2115,16 @@
         <v>1.3747727084867526E-2</v>
       </c>
       <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" t="s">
         <v>18</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>19</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>20</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2153,7 +2153,7 @@
         <v>28.36</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>-3.4000000000000002E-2</v>
@@ -2168,16 +2168,16 @@
         <v>1.6248076809271927E-2</v>
       </c>
       <c r="N21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" t="s">
         <v>18</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>19</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>20</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
